--- a/data/trans_dic/P57_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_R2-Provincia-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2558526359237551</v>
+        <v>0.2604656978439054</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1825956352148592</v>
+        <v>0.1808115975009463</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1999420848748455</v>
+        <v>0.2024503995011877</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1488227547889904</v>
+        <v>0.1512342545760634</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2459264793430626</v>
+        <v>0.2469514351361903</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1783550536174704</v>
+        <v>0.1792204589222638</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3702302010438241</v>
+        <v>0.3695420400060763</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.295860531103866</v>
+        <v>0.2891491735995134</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3018480664799131</v>
+        <v>0.3065983585564708</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2240651905360507</v>
+        <v>0.2253741925890979</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3198336607064869</v>
+        <v>0.3229605232564046</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2443301940588258</v>
+        <v>0.2437648532391588</v>
       </c>
     </row>
     <row r="7">
@@ -694,13 +694,13 @@
         <v>0.3498217520544905</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7302719019057263</v>
+        <v>0.7302719019057262</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.3202333236114555</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6827643115955206</v>
+        <v>0.6827643115955205</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3347114631566077</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.308985273684694</v>
+        <v>0.3067591926421075</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6806657380490991</v>
+        <v>0.6811556635270096</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2802582620227393</v>
+        <v>0.274835266278757</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6456730625304061</v>
+        <v>0.6437479836860478</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3051079704086224</v>
+        <v>0.3035753177443515</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6787171651891248</v>
+        <v>0.6781240363138816</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3947535292333368</v>
+        <v>0.400541425915474</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7762116048764353</v>
+        <v>0.7831780603259817</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3646358648901012</v>
+        <v>0.3622054338537182</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7162690811254162</v>
+        <v>0.7174824594438592</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3670934178755041</v>
+        <v>0.3686592797398689</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7365763660492275</v>
+        <v>0.7373845226149526</v>
       </c>
     </row>
     <row r="10">
@@ -776,13 +776,13 @@
         <v>0.3052428614799668</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.4738841709979468</v>
+        <v>0.4738841709979469</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.2878334260393766</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3894079798303361</v>
+        <v>0.389407979830336</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2962904602005776</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2552499579129371</v>
+        <v>0.2508196962654935</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4201156355105527</v>
+        <v>0.416702818418548</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.238216168771111</v>
+        <v>0.2420742638122921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3488253276700945</v>
+        <v>0.3449805662232277</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2655960711706907</v>
+        <v>0.2636940491761099</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.395508015423326</v>
+        <v>0.39229275951732</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3590262267989177</v>
+        <v>0.3519032019034657</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5302717628484744</v>
+        <v>0.5306891555010227</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3339073737120828</v>
+        <v>0.3416219152071653</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4375523780008224</v>
+        <v>0.4306703113172698</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.335813601132341</v>
+        <v>0.3316652254986335</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4638278121862809</v>
+        <v>0.4647155419041015</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3558922517342923</v>
+        <v>0.3541067798325032</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3558303894061616</v>
+        <v>0.3527314474652226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2989826629019645</v>
+        <v>0.3017008599895924</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3576962809377798</v>
+        <v>0.3664046721656378</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.344033402854089</v>
+        <v>0.3406311767629958</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3725703505397374</v>
+        <v>0.3736551476349027</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4557615469068573</v>
+        <v>0.4612614273755098</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4984913052138818</v>
+        <v>0.4960243450046265</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3982586483155502</v>
+        <v>0.4021363537547191</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4583220501109872</v>
+        <v>0.4611486169615727</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4173205985928332</v>
+        <v>0.4142746205167212</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4581578865926815</v>
+        <v>0.4563756551898477</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.108965346468617</v>
+        <v>0.1090341368269067</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3492385492216964</v>
+        <v>0.3421348292461108</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08205786134941002</v>
+        <v>0.08055317279964055</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3099896405584781</v>
+        <v>0.31147563061665</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1068164475221227</v>
+        <v>0.1055041569787727</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3407449628387972</v>
+        <v>0.3429146746858827</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.208152964834032</v>
+        <v>0.210701033850624</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4702142739710742</v>
+        <v>0.4731504929232813</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.16251984937647</v>
+        <v>0.1663339462161086</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4084837520164369</v>
+        <v>0.4047300079922495</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1685939349412205</v>
+        <v>0.169816247662696</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4197821682370813</v>
+        <v>0.4189894676933424</v>
       </c>
     </row>
     <row r="19">
@@ -1022,19 +1022,19 @@
         <v>0.5125485503596018</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.4918152925281001</v>
+        <v>0.4918152925281002</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.4479043655331694</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.5154356688555792</v>
+        <v>0.515435668855579</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.4796835931283924</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.5034647455501776</v>
+        <v>0.5034647455501777</v>
       </c>
     </row>
     <row r="20">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4496882043892205</v>
+        <v>0.4492807554284662</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4395844998269119</v>
+        <v>0.4369689054148947</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3884268315411079</v>
+        <v>0.3896526980288977</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4624044243678365</v>
+        <v>0.4663317456288323</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4319977471271993</v>
+        <v>0.4368173879486779</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4641767218351163</v>
+        <v>0.4672307069315519</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5723819034258186</v>
+        <v>0.5766286263374513</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5437531984852112</v>
+        <v>0.5464059766324867</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5063715205529591</v>
+        <v>0.5091918464501775</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5591198169125903</v>
+        <v>0.5648135920382201</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5211407227852778</v>
+        <v>0.5212965347492072</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.537654902017649</v>
+        <v>0.5419429269936433</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>0.2597536393286689</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3946922702360807</v>
+        <v>0.3946922702360806</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2765651348595055</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2613452170421157</v>
+        <v>0.2603074913481018</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3977055887627277</v>
+        <v>0.3961041371649846</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2258843721857252</v>
+        <v>0.2292211084263625</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3622143252109681</v>
+        <v>0.3647450632813825</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2521015988284526</v>
+        <v>0.2527502653517555</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3887314875066168</v>
+        <v>0.3889180913861662</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3353259909556983</v>
+        <v>0.3318971197073477</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4869238275525518</v>
+        <v>0.4848286880277119</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2937475406806128</v>
+        <v>0.2979295453307554</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4304638824257273</v>
+        <v>0.4305476694365498</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3010886872737627</v>
+        <v>0.3025935907831925</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.446172664370267</v>
+        <v>0.4460464904201705</v>
       </c>
     </row>
     <row r="25">
@@ -1186,7 +1186,7 @@
         <v>0.1998781497510251</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.4188721575459863</v>
+        <v>0.4188721575459862</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.1607239404656517</v>
@@ -1198,7 +1198,7 @@
         <v>0.1797444048123411</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.3747260774641483</v>
+        <v>0.3747260774641481</v>
       </c>
     </row>
     <row r="26">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1727895724353452</v>
+        <v>0.1763145399450107</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3790111958553959</v>
+        <v>0.3820406327066259</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1334536867693533</v>
+        <v>0.1329983631273555</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3019625795458841</v>
+        <v>0.3015634842322962</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1599657558559387</v>
+        <v>0.1607451681116125</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3508125361741751</v>
+        <v>0.350293725461469</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2315696185336036</v>
+        <v>0.2319370583374122</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4565842905413816</v>
+        <v>0.4553734420675212</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.191110325446486</v>
+        <v>0.1877033911488842</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3639836711880266</v>
+        <v>0.3648415559572222</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1995754115399519</v>
+        <v>0.1996650229515768</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4013940107725615</v>
+        <v>0.4005637162275468</v>
       </c>
     </row>
     <row r="28">
@@ -1268,7 +1268,7 @@
         <v>0.303542595721792</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.4640773379305981</v>
+        <v>0.464077337930598</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.2632355943658629</v>
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2888884188953999</v>
+        <v>0.2878117499622123</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4444671139199283</v>
+        <v>0.4459027282837472</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2481194828648475</v>
+        <v>0.2483757961060622</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.397616091021017</v>
+        <v>0.3969946208803338</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2725492784698017</v>
+        <v>0.2713287601490773</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.4265753071111628</v>
+        <v>0.4260608159330918</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3206149164345699</v>
+        <v>0.3195302868229622</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4822589675119416</v>
+        <v>0.483508347757528</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2785441665670674</v>
+        <v>0.2794565142534241</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4265860052070894</v>
+        <v>0.4270878362871848</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2940936043540789</v>
+        <v>0.2939475263534146</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.4504103609900552</v>
+        <v>0.4491188203396612</v>
       </c>
     </row>
     <row r="31">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>74922</v>
+        <v>76272</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>58220</v>
+        <v>57651</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>57724</v>
+        <v>58448</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>47037</v>
+        <v>47799</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>143015</v>
+        <v>143611</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>113239</v>
+        <v>113788</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>108415</v>
+        <v>108213</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>94334</v>
+        <v>92194</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>87144</v>
+        <v>88516</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>70818</v>
+        <v>71232</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>185994</v>
+        <v>187813</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>155127</v>
+        <v>154768</v>
       </c>
     </row>
     <row r="8">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>154298</v>
+        <v>153186</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>361193</v>
+        <v>361453</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>146063</v>
+        <v>143237</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>350367</v>
+        <v>349322</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>311375</v>
+        <v>309811</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>728457</v>
+        <v>727820</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>197128</v>
+        <v>200018</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>411894</v>
+        <v>415591</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>190038</v>
+        <v>188772</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>388675</v>
+        <v>389333</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>374634</v>
+        <v>376232</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>790556</v>
+        <v>791424</v>
       </c>
     </row>
     <row r="12">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>81093</v>
+        <v>79685</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>132039</v>
+        <v>130966</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>80114</v>
+        <v>81412</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>123747</v>
+        <v>122383</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>173702</v>
+        <v>172458</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>264612</v>
+        <v>262461</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>114063</v>
+        <v>111800</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>166660</v>
+        <v>166791</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>112296</v>
+        <v>114891</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>155223</v>
+        <v>152782</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>219625</v>
+        <v>216912</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>310321</v>
+        <v>310915</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>130591</v>
+        <v>129936</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>130008</v>
+        <v>128876</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>115070</v>
+        <v>116117</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>146616</v>
+        <v>150185</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>258649</v>
+        <v>256091</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>288837</v>
+        <v>289678</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>167237</v>
+        <v>169255</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>182132</v>
+        <v>181230</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>153279</v>
+        <v>154771</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>187861</v>
+        <v>189020</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>313747</v>
+        <v>311457</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>355189</v>
+        <v>353807</v>
       </c>
     </row>
     <row r="20">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23016</v>
+        <v>23030</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>71826</v>
+        <v>70365</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>17937</v>
+        <v>17608</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>70179</v>
+        <v>70515</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>45911</v>
+        <v>45347</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>147221</v>
+        <v>148158</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>43966</v>
+        <v>44504</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>96707</v>
+        <v>97310</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>35525</v>
+        <v>36358</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>92477</v>
+        <v>91627</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>72463</v>
+        <v>72988</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>181369</v>
+        <v>181027</v>
       </c>
     </row>
     <row r="24">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>118323</v>
+        <v>118216</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>118999</v>
+        <v>118291</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>105696</v>
+        <v>106030</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>121814</v>
+        <v>122849</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>231221</v>
+        <v>233800</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>247938</v>
+        <v>249569</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>150607</v>
+        <v>151724</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>147198</v>
+        <v>147916</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>137790</v>
+        <v>138558</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>147293</v>
+        <v>148793</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>278933</v>
+        <v>279017</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>287186</v>
+        <v>289476</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>170127</v>
+        <v>169451</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>285898</v>
+        <v>284747</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>154097</v>
+        <v>156373</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>278912</v>
+        <v>280861</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>336091</v>
+        <v>336956</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>578777</v>
+        <v>579055</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>218286</v>
+        <v>216054</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>350034</v>
+        <v>348528</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>200392</v>
+        <v>203245</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>331465</v>
+        <v>331530</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>401399</v>
+        <v>403405</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>664301</v>
+        <v>664113</v>
       </c>
     </row>
     <row r="32">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>134531</v>
+        <v>137276</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>302225</v>
+        <v>304641</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>109986</v>
+        <v>109611</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>250487</v>
+        <v>250156</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>256383</v>
+        <v>257632</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>570749</v>
+        <v>569905</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>180296</v>
+        <v>180582</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>364083</v>
+        <v>363117</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>157504</v>
+        <v>154697</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>301935</v>
+        <v>302647</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>319867</v>
+        <v>320011</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>653042</v>
+        <v>651691</v>
       </c>
     </row>
     <row r="36">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>976655</v>
+        <v>973015</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1565321</v>
+        <v>1570377</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>875391</v>
+        <v>876296</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1476236</v>
+        <v>1473929</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1882999</v>
+        <v>1874566</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>3086064</v>
+        <v>3082342</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1083913</v>
+        <v>1080247</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1698416</v>
+        <v>1702816</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>982733</v>
+        <v>985952</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1583794</v>
+        <v>1585657</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2031845</v>
+        <v>2030836</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3258499</v>
+        <v>3249155</v>
       </c>
     </row>
     <row r="40">
